--- a/output_3_jobs.xlsx
+++ b/output_3_jobs.xlsx
@@ -1,45 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonproject\ICC_new\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17404D2-373C-44AD-AC8E-FFB666EC4548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -360,238 +408,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <v>1.044251601830664</v>
-      </c>
-      <c r="B1">
-        <v>2.2925772181245661</v>
-      </c>
-      <c r="C1">
-        <v>5.9118287702554566</v>
-      </c>
-      <c r="D1">
-        <v>10.93752477172249</v>
-      </c>
-      <c r="E1">
-        <v>7.5577836879330844</v>
-      </c>
-      <c r="F1">
-        <v>9.015702626218884</v>
-      </c>
-      <c r="G1">
-        <v>5.3454884045158018</v>
-      </c>
-      <c r="H1">
-        <v>1.044251601830664</v>
-      </c>
-      <c r="I1">
-        <v>2.2925772181245661</v>
-      </c>
-      <c r="J1">
-        <v>10.20670145090561</v>
-      </c>
-      <c r="K1">
-        <v>12.195121951219511</v>
-      </c>
-      <c r="L1">
-        <v>12.04819277108434</v>
-      </c>
-      <c r="M1">
-        <v>12.195121951219511</v>
-      </c>
-      <c r="N1">
-        <v>10.260048952210051</v>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>0.6110495761904762</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.8264612190476189</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.8227364632867135</v>
+      </c>
+      <c r="D1" t="n">
+        <v>20.48858647980261</v>
+      </c>
+      <c r="E1" t="n">
+        <v>13.24379874375395</v>
+      </c>
+      <c r="F1" t="n">
+        <v>15.96578971534299</v>
+      </c>
+      <c r="G1" t="n">
+        <v>8.514137742195782</v>
+      </c>
+      <c r="H1" t="n">
+        <v>1.042897142857143</v>
+      </c>
+      <c r="I1" t="n">
+        <v>1.198464523809524</v>
+      </c>
+      <c r="J1" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="K1" t="n">
+        <v>21.73913043478261</v>
+      </c>
+      <c r="L1" t="n">
+        <v>21.27659574468085</v>
+      </c>
+      <c r="M1" t="n">
+        <v>21.27659574468085</v>
+      </c>
+      <c r="N1" t="n">
+        <v>17.3499508730159</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1.0123881055900621</v>
-      </c>
-      <c r="B2">
-        <v>2.3615234362418458</v>
-      </c>
-      <c r="C2">
-        <v>5.2319036344436523</v>
-      </c>
-      <c r="D2">
-        <v>10.77157893119381</v>
-      </c>
-      <c r="E2">
-        <v>7.4888880461727787</v>
-      </c>
-      <c r="F2">
-        <v>8.8576051010238039</v>
-      </c>
-      <c r="G2">
-        <v>5.0474849966153439</v>
-      </c>
-      <c r="H2">
-        <v>1.0123881055900621</v>
-      </c>
-      <c r="I2">
-        <v>2.3615234362418458</v>
-      </c>
-      <c r="J2">
-        <v>9.5414266430493964</v>
-      </c>
-      <c r="K2">
-        <v>12.195121951219511</v>
-      </c>
-      <c r="L2">
-        <v>12.04819277108434</v>
-      </c>
-      <c r="M2">
-        <v>12.195121951219511</v>
-      </c>
-      <c r="N2">
-        <v>10.265102483408141</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.5425764702380952</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8194676988095237</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7271545238095238</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.35397668287613</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.89507616818924</v>
+      </c>
+      <c r="F2" t="n">
+        <v>10.24805569227617</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.199680902513236</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9956999999999999</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.261211666666667</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K2" t="n">
+        <v>21.27659574468085</v>
+      </c>
+      <c r="L2" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="M2" t="n">
+        <v>21.27659574468085</v>
+      </c>
+      <c r="N2" t="n">
+        <v>10.55194408730161</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1.1071500000000001</v>
-      </c>
-      <c r="B3">
-        <v>2.6563570302314932</v>
-      </c>
-      <c r="C3">
-        <v>7.5006627154582874</v>
-      </c>
-      <c r="D3">
-        <v>11.41981900799323</v>
-      </c>
-      <c r="E3">
-        <v>11.481442358378681</v>
-      </c>
-      <c r="F3">
-        <v>11.584930235609241</v>
-      </c>
-      <c r="G3">
-        <v>6.2938139470166732</v>
-      </c>
-      <c r="H3">
-        <v>1.1071500000000001</v>
-      </c>
-      <c r="I3">
-        <v>2.6563570302314932</v>
-      </c>
-      <c r="J3">
-        <v>11.975848451988179</v>
-      </c>
-      <c r="K3">
-        <v>12.195121951219511</v>
-      </c>
-      <c r="L3">
-        <v>12.04819277108434</v>
-      </c>
-      <c r="M3">
-        <v>12.195121951219511</v>
-      </c>
-      <c r="N3">
-        <v>12.50282217008384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>0.99569999999999992</v>
-      </c>
-      <c r="B4">
-        <v>2.3836172579706458</v>
-      </c>
-      <c r="C4">
-        <v>6.7031366947114686</v>
-      </c>
-      <c r="D4">
-        <v>11.04550894812593</v>
-      </c>
-      <c r="E4">
-        <v>8.814920798372027</v>
-      </c>
-      <c r="F4">
-        <v>9.8530210261567159</v>
-      </c>
-      <c r="G4">
-        <v>5.7351969894561918</v>
-      </c>
-      <c r="H4">
-        <v>0.99569999999999992</v>
-      </c>
-      <c r="I4">
-        <v>2.3836172579706458</v>
-      </c>
-      <c r="J4">
-        <v>11.29381179613512</v>
-      </c>
-      <c r="K4">
-        <v>12.195121951219511</v>
-      </c>
-      <c r="L4">
-        <v>12.04819277108434</v>
-      </c>
-      <c r="M4">
-        <v>12.195121951219511</v>
-      </c>
-      <c r="N4">
-        <v>11.311451994960001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1.102724575643655</v>
-      </c>
-      <c r="B5">
-        <v>2.6382498536502501</v>
-      </c>
-      <c r="C5">
-        <v>7.4882873291815351</v>
-      </c>
-      <c r="D5">
-        <v>14.81571947033197</v>
-      </c>
-      <c r="E5">
-        <v>12.08994056047201</v>
-      </c>
-      <c r="F5">
-        <v>11.907804480608901</v>
-      </c>
-      <c r="G5">
-        <v>6.6412629019138496</v>
-      </c>
-      <c r="H5">
-        <v>1.102724575643655</v>
-      </c>
-      <c r="I5">
-        <v>2.6382498536502501</v>
-      </c>
-      <c r="J5">
-        <v>12.2151681520231</v>
-      </c>
-      <c r="K5">
-        <v>12.195121951219511</v>
-      </c>
-      <c r="L5">
-        <v>12.658227848101269</v>
-      </c>
-      <c r="M5">
-        <v>13.698630136986299</v>
-      </c>
-      <c r="N5">
-        <v>12.48370228137607</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.6071872587301588</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8066819888888889</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.707334576923077</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.81084785740478</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.84665454954458</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.30105446774875</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.987193421560858</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.0801</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.217901428571428</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="K3" t="n">
+        <v>21.27659574468085</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21.27659574468085</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12.01908579365081</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output_3_jobs.xlsx
+++ b/output_3_jobs.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonproject\ICC_new\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C3CFC7-6BD3-4124-AFE0-B9DE0CC347C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +58,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,152 +360,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.6110495761904762</v>
-      </c>
-      <c r="B1" t="n">
-        <v>0.8264612190476189</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.8227364632867135</v>
-      </c>
-      <c r="D1" t="n">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>0.61104957619047617</v>
+      </c>
+      <c r="B1">
+        <v>0.82646121904761893</v>
+      </c>
+      <c r="C1">
+        <v>0.82273646328671346</v>
+      </c>
+      <c r="D1">
         <v>20.48858647980261</v>
       </c>
-      <c r="E1" t="n">
-        <v>13.24379874375395</v>
-      </c>
-      <c r="F1" t="n">
-        <v>15.96578971534299</v>
-      </c>
-      <c r="G1" t="n">
+      <c r="E1">
+        <v>13.243798743753951</v>
+      </c>
+      <c r="F1">
+        <v>15.965789715342989</v>
+      </c>
+      <c r="G1">
         <v>8.514137742195782</v>
       </c>
-      <c r="H1" t="n">
+      <c r="H1">
         <v>1.042897142857143</v>
       </c>
-      <c r="I1" t="n">
+      <c r="I1">
         <v>1.198464523809524</v>
       </c>
-      <c r="J1" t="n">
-        <v>1.701</v>
-      </c>
-      <c r="K1" t="n">
-        <v>21.73913043478261</v>
-      </c>
-      <c r="L1" t="n">
-        <v>21.27659574468085</v>
-      </c>
-      <c r="M1" t="n">
-        <v>21.27659574468085</v>
-      </c>
-      <c r="N1" t="n">
-        <v>17.3499508730159</v>
+      <c r="J1">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="K1">
+        <v>21.739130434782609</v>
+      </c>
+      <c r="L1">
+        <v>21.276595744680851</v>
+      </c>
+      <c r="M1">
+        <v>21.276595744680851</v>
+      </c>
+      <c r="N1">
+        <v>17.349950873015899</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>0.5425764702380952</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.8194676988095237</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7271545238095238</v>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0.54257647023809519</v>
+      </c>
+      <c r="B2">
+        <v>0.81946769880952375</v>
+      </c>
+      <c r="C2">
+        <v>0.72715452380952383</v>
+      </c>
+      <c r="D2">
         <v>19.35397668287613</v>
       </c>
-      <c r="E2" t="n">
-        <v>8.89507616818924</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2">
+        <v>8.8950761681892399</v>
+      </c>
+      <c r="F2">
         <v>10.24805569227617</v>
       </c>
-      <c r="G2" t="n">
-        <v>5.199680902513236</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9956999999999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.261211666666667</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="G2">
+        <v>5.1996809025132356</v>
+      </c>
+      <c r="H2">
+        <v>0.99569999999999992</v>
+      </c>
+      <c r="I2">
+        <v>1.2612116666666671</v>
+      </c>
+      <c r="J2">
         <v>1.23</v>
       </c>
-      <c r="K2" t="n">
-        <v>21.27659574468085</v>
-      </c>
-      <c r="L2" t="n">
-        <v>20.83333333333333</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.27659574468085</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="K2">
+        <v>21.276595744680851</v>
+      </c>
+      <c r="L2">
+        <v>20.833333333333329</v>
+      </c>
+      <c r="M2">
+        <v>21.276595744680851</v>
+      </c>
+      <c r="N2">
         <v>10.55194408730161</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0.6071872587301588</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.8066819888888889</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>0.60718725873015877</v>
+      </c>
+      <c r="B3">
+        <v>0.80668198888888887</v>
+      </c>
+      <c r="C3">
         <v>0.707334576923077</v>
       </c>
-      <c r="D3" t="n">
-        <v>19.81084785740478</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.84665454954458</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11.30105446774875</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.987193421560858</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.0801</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="D3">
+        <v>19.810847857404781</v>
+      </c>
+      <c r="E3">
+        <v>9.8466545495445796</v>
+      </c>
+      <c r="F3">
+        <v>11.301054467748751</v>
+      </c>
+      <c r="G3">
+        <v>5.9871934215608578</v>
+      </c>
+      <c r="H3">
+        <v>1.0801000000000001</v>
+      </c>
+      <c r="I3">
         <v>1.217901428571428</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.701</v>
-      </c>
-      <c r="K3" t="n">
-        <v>21.27659574468085</v>
-      </c>
-      <c r="L3" t="n">
-        <v>20.83333333333333</v>
-      </c>
-      <c r="M3" t="n">
-        <v>21.27659574468085</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="J3">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="K3">
+        <v>21.276595744680851</v>
+      </c>
+      <c r="L3">
+        <v>20.833333333333329</v>
+      </c>
+      <c r="M3">
+        <v>21.276595744680851</v>
+      </c>
+      <c r="N3">
         <v>12.01908579365081</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>